--- a/data/20210323 Hinterkipper_de en_final_SAP.xlsx
+++ b/data/20210323 Hinterkipper_de en_final_SAP.xlsx
@@ -8,15 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Merkmalswerte" sheetId="1" r:id="rId1"/>
-    <sheet name="Merkmale" sheetId="2" r:id="rId2"/>
-    <sheet name="Konditionen" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>ATINN</t>
   </si>
@@ -40,72 +38,6 @@
   </si>
   <si>
     <t>Wertebezeichnung (englisch)</t>
-  </si>
-  <si>
-    <t>H3ACH</t>
-  </si>
-  <si>
-    <t>H3BKT</t>
-  </si>
-  <si>
-    <t>Achsanzahl</t>
-  </si>
-  <si>
-    <t>Baukasten</t>
-  </si>
-  <si>
-    <t>H3ACH04asdasd</t>
-  </si>
-  <si>
-    <t>H3ACH05</t>
-  </si>
-  <si>
-    <t>H3BKTSXXX</t>
-  </si>
-  <si>
-    <t>5 shaun insert</t>
-  </si>
-  <si>
-    <t>Sxxx</t>
-  </si>
-  <si>
-    <t>shaun is cool</t>
-  </si>
-  <si>
-    <t>Merkmalsbezeichnung (deutsch)</t>
-  </si>
-  <si>
-    <t>Merkmalsbezeichnung (englisch)</t>
-  </si>
-  <si>
-    <t>H3TYP</t>
-  </si>
-  <si>
-    <t>Produkttyp</t>
-  </si>
-  <si>
-    <t>shaun</t>
-  </si>
-  <si>
-    <t>product type</t>
-  </si>
-  <si>
-    <t>Kondition</t>
-  </si>
-  <si>
-    <t>deutsch</t>
-  </si>
-  <si>
-    <t>englisch</t>
-  </si>
-  <si>
-    <t>GAR02I_H336</t>
-  </si>
-  <si>
-    <t>Garantie 2 Jahre inkl. Insp. Edna</t>
-  </si>
-  <si>
-    <t>2-year warranty incl. insp. Shaun</t>
   </si>
 </sst>
 </file>
@@ -463,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -498,163 +430,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
-      <c r="H2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3">
-        <v>11355</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4">
-        <v>12912</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>11509</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/20210323 Hinterkipper_de en_final_SAP.xlsx
+++ b/data/20210323 Hinterkipper_de en_final_SAP.xlsx
@@ -8,13 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="Merkmalswerte" sheetId="1" r:id="rId1"/>
+    <sheet name="Merkmale" sheetId="2" r:id="rId2"/>
+    <sheet name="Konditionen" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>ATINN</t>
   </si>
@@ -38,6 +40,21 @@
   </si>
   <si>
     <t>Wertebezeichnung (englisch)</t>
+  </si>
+  <si>
+    <t>Merkmalsbezeichnung (deutsch)</t>
+  </si>
+  <si>
+    <t>Merkmalsbezeichnung (englisch)</t>
+  </si>
+  <si>
+    <t>Kondition</t>
+  </si>
+  <si>
+    <t>deutsch</t>
+  </si>
+  <si>
+    <t>englisch</t>
   </si>
 </sst>
 </file>
@@ -433,4 +450,64 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>